--- a/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
+++ b/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8743E92-ED5B-4DD3-841F-B418CD58E00E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C5DC05-C7DE-4CE4-9F94-23CF30DA5088}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Denumire</t>
   </si>
@@ -59,13 +59,56 @@
   </si>
   <si>
     <t>supliment alimentar</t>
+  </si>
+  <si>
+    <t>Imagine_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adulți: 1 tabletă de 2 ori pe zi, după mese, luată cu o cantitate suficientă de lichid. Copii peste vârsta de 12 ani: 1 tabletă pe zi.
+</t>
+  </si>
+  <si>
+    <t>Compoziția sa a fost dezvoltată pe baza unei expertize minuțioase a nutriției articulațiilor și buna cunoaștere a sistemului musculo-scheletic. Extractele din tradiționalul Salix alba, împreună cu Curcuma longa, utilizate în Ayurveda, contribuie la menținerea sănătății și flexibilității articulațiilor. Extractul din Boswellia serrata ajută la funcționarea normală a articulațiilor.</t>
+  </si>
+  <si>
+    <t>Obegrass - 30 PLICURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proenzi ArtroStop Intensive - 30 tablete</t>
+  </si>
+  <si>
+    <t>Imagine_3.jpg</t>
+  </si>
+  <si>
+    <t>Pentru imbunatatirea rezultatelor se recomanda administrarea unui pliculet de Obegrass intr-un pahar cu apa, cu 10 minute inainte de mesele principale - maxim 3 pliculete/zi. Nu are niciun fel de efect advers si poate fi administrat impreuna cu oricare alt tratament medicamentos.</t>
+  </si>
+  <si>
+    <t>50,40</t>
+  </si>
+  <si>
+    <t>Fibre alimentare de  origine vegetala fermentabile, care echilibreaza flora intestinala, prin stimularea dezvoltarii bacteriilor Bifidus, acele bacterii prietenoase indispensabile functionarii corecte a sistemului imunitar. Pe langa faptul ca imbunatatesc digestia, prin optimizarea absorbtiei vitaminelor si mineralelor esentiale, potrivit mai multor studii recente, acestea au un rol important in combaterea unui sir lung de probleme de sanatate</t>
+  </si>
+  <si>
+    <t>Naturalis BronhoSuport, 100 ml</t>
+  </si>
+  <si>
+    <t>Imagine_4.jpg</t>
+  </si>
+  <si>
+    <t>sirop antitusiv</t>
+  </si>
+  <si>
+    <t>Acest produs se adreseaza exclusiv adultilor. Doza recomandata: cate 1-2 lingurite x 5ml de 2-3 ori pe zi, maximum 30ml (6 lingurite) sirop pe zi. Se recomanda agitarea energica a flaconului inainte de utilizare.</t>
+  </si>
+  <si>
+    <t>Naturalis Bronhosuport, este un sirop antitusiv, expectorant calmant si protector al mucoasei bronsice.Asocierea substantelor bioactive din extractul de Patlagina si din tincturile de Cimbru de cultura, Ciubotica cucului, Grindelia si  Lichenul de piatra cu mierea poliflora are efect benefic asupra sanatatii sistemului respirator.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +135,13 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF060606"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +230,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +247,90 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -482,40 +616,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="67.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="51" style="24" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="67.85546875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="27"/>
+    <col min="7" max="7" width="13.5703125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2"/>
@@ -524,13 +659,13 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -544,994 +679,1032 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="15">
+        <v>44</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
       <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
       <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
       <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
       <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
       <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
       <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
       <c r="H101" s="7"/>
     </row>
   </sheetData>

--- a/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
+++ b/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C5DC05-C7DE-4CE4-9F94-23CF30DA5088}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82BEA97-F815-4200-B86A-B6B2414C84E6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Denumire</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Fibre alimentare de  origine vegetala fermentabile, care echilibreaza flora intestinala, prin stimularea dezvoltarii bacteriilor Bifidus, acele bacterii prietenoase indispensabile functionarii corecte a sistemului imunitar. Pe langa faptul ca imbunatatesc digestia, prin optimizarea absorbtiei vitaminelor si mineralelor esentiale, potrivit mai multor studii recente, acestea au un rol important in combaterea unui sir lung de probleme de sanatate</t>
   </si>
   <si>
-    <t>Naturalis BronhoSuport, 100 ml</t>
-  </si>
-  <si>
     <t>Imagine_4.jpg</t>
   </si>
   <si>
@@ -102,6 +99,99 @@
   </si>
   <si>
     <t>Naturalis Bronhosuport, este un sirop antitusiv, expectorant calmant si protector al mucoasei bronsice.Asocierea substantelor bioactive din extractul de Patlagina si din tincturile de Cimbru de cultura, Ciubotica cucului, Grindelia si  Lichenul de piatra cu mierea poliflora are efect benefic asupra sanatatii sistemului respirator.</t>
+  </si>
+  <si>
+    <t>Naturalis BronhoSuport</t>
+  </si>
+  <si>
+    <t>Imagine_5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GinkoPrim Max este un produs cu eficienta dovedita care ofera un maxim de efect cu o singura tableta pe zi.</t>
+  </si>
+  <si>
+    <t>GinkoPrim Max 120 mg (30 tablete)</t>
+  </si>
+  <si>
+    <t>Extractul standardizat de Ginkgo biloba garantează cantitatea optimă de substanțe active (glicozide ginkgoflavonice, terpene lactonice ), ce au caracteristici biologice unice. Ginkgo biloba sprijină circulația venoasă contribuind la menținerea performanței creierului odată cu trecerea anilor, cât și la înlăturarea senzației de mâini și picioare reci.</t>
+  </si>
+  <si>
+    <t>Revidox x 30 capsule</t>
+  </si>
+  <si>
+    <t>Imagine_6.jpg</t>
+  </si>
+  <si>
+    <t>1 capsula pe zi,de preferat in timpul micului dejun.
+A nu se depasi doza recomandata pentru consumul zilnic.</t>
+  </si>
+  <si>
+    <t>Compozitie per tableta: STILVID extras integral din seminte de strugure 133 mg din care 8 mg resveratrol bioactiv, 0,67 mg antocianozide, 14,63 mg procianidine, 0,4 mg flavonoide, 1,3 mg alte stilbene. Extract uscat din fructe de rodie 125 mg, punicalagini – acid elagic 8,75 mg, procianidine 3,75 mg. Drojdie de seleniu, dioxid de siliciu si stearat de magneziu.</t>
+  </si>
+  <si>
+    <t>Paracetamol 250mg</t>
+  </si>
+  <si>
+    <t>Imagine_7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supozitoarele cu paracetamol se administreaza intrarectal.
+Doza recomandata este diferentiata in functie de varsta
+</t>
+  </si>
+  <si>
+    <t>analgezice-antipiretice</t>
+  </si>
+  <si>
+    <t>Substanta cu actiune analgezica asemanatoare cu a fenacetinei si cu efect antipiretic apropiat de al salicilatilor, paracetamolul actioneaza asupra centrilor termoreglatori din sistemul nervos central, determinand o pierdere mai accentuata de caldura prin vasodilatatie cutanata. Efectul analgezic are, de asemenea, un mecanism central, fiind influentate durerile de intensitate medie. Nu are actiune antiinflamatoare si nu este antiagregant plachetar.</t>
+  </si>
+  <si>
+    <t>5,35</t>
+  </si>
+  <si>
+    <t>Alevia Propolis Vitamina C</t>
+  </si>
+  <si>
+    <t>Imagine_8.jpg</t>
+  </si>
+  <si>
+    <t>Câte 2-4 comprimate masticabile pe zi.</t>
+  </si>
+  <si>
+    <t>Propolisul este un produs rezultat din secreția albinelor. Are o acțiune antibacteriană, antifungică și antivirală. Vitamina C mărește rezistența organismului față de infecții.</t>
+  </si>
+  <si>
+    <t>17,20</t>
+  </si>
+  <si>
+    <t>Vedixin Max, 30 comprimate</t>
+  </si>
+  <si>
+    <t>Imagine_9.jpg</t>
+  </si>
+  <si>
+    <t>1 comprimat pe zi, inghitit cu suficient lichid.</t>
+  </si>
+  <si>
+    <t>Vedixin Max este un supliment alimentar special conceput pentru protejarea si imbunatatirea vederii. Vedixin®MAX contine o cantitate importanta de luteina, 24 mg intr-un singur comprimat.Datorita puternicului efect antioxidant, luteina incetineste progresia unor boli degenerative ale ochiului si opacifierea cristalinului.</t>
+  </si>
+  <si>
+    <t>Corega Tabs bioformula x 30 comprimate</t>
+  </si>
+  <si>
+    <t>Imagine_10.jpg</t>
+  </si>
+  <si>
+    <t>Corega Tabs bioformula se utilizeaza de doua ori pe zi: un comprimat se dizolva intr-un pahar cu apa calda, dupa care se introduce complet proteza dentara care a fost clatita temeinic in prealabil. Se lasa cel putin 10-15 minute.</t>
+  </si>
+  <si>
+    <t>crema adeziva</t>
+  </si>
+  <si>
+    <t>Gama COREGA de creme adezive pentru proteze dentare este concepută special pentru a asigura o fixare fermă a protezei dentare, prin îmbunătățirea fixării și confortului, şi pentru a-ți oferi încrederea şi siguranţa de a trăi liber de orice constrângere.</t>
+  </si>
+  <si>
+    <t>25,50</t>
   </si>
 </sst>
 </file>
@@ -280,15 +370,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -304,9 +388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -330,6 +411,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -616,41 +706,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" style="24" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="67.85546875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="27"/>
-    <col min="7" max="7" width="13.5703125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="51" style="22" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="67.85546875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="28"/>
+    <col min="7" max="7" width="13.5703125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2"/>
@@ -659,13 +749,13 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -689,7 +779,7 @@
       <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -713,10 +803,10 @@
       <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -729,982 +819,1070 @@
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="15">
+        <v>50</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>29</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="15">
+        <v>175</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4">
+        <v>30</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="23"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="23"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="23"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="23"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="23"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="23"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="23"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="23"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="23"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="23"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="3"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="23"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="23"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="23"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="3"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="23"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="3"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="23"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="3"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="23"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="23"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="3"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="23"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="15"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="3"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="23"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="3"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="23"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="23"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="3"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="23"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="15"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="23"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="15"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="3"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="23"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="15"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="3"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="23"/>
+      <c r="C73" s="34"/>
       <c r="D73" s="15"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="3"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="23"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
       <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="3"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="23"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="15"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="3"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="23"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="15"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="3"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="23"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="15"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="3"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="23"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="15"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="3"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="23"/>
+      <c r="C85" s="34"/>
       <c r="D85" s="15"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="3"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="23"/>
+      <c r="C87" s="34"/>
       <c r="D87" s="15"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="3"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="23"/>
+      <c r="C89" s="34"/>
       <c r="D89" s="15"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
       <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="3"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="23"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="15"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="3"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="23"/>
+      <c r="C93" s="34"/>
       <c r="D93" s="15"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
       <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="3"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="23"/>
+      <c r="C95" s="34"/>
       <c r="D95" s="15"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
       <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="3"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="23"/>
+      <c r="C97" s="34"/>
       <c r="D97" s="15"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
       <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="3"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="23"/>
+      <c r="C99" s="34"/>
       <c r="D99" s="15"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
       <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="3"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="23"/>
+      <c r="C101" s="34"/>
       <c r="D101" s="15"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
       <c r="H101" s="7"/>
     </row>
   </sheetData>

--- a/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
+++ b/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82BEA97-F815-4200-B86A-B6B2414C84E6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC95840-C418-46DC-9182-8B29643C2593}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>Denumire</t>
   </si>
@@ -192,6 +192,87 @@
   </si>
   <si>
     <t>25,50</t>
+  </si>
+  <si>
+    <t>Afrin aerosol 0,05%, 20ml</t>
+  </si>
+  <si>
+    <t>Imagine_11.jpg</t>
+  </si>
+  <si>
+    <t>Inainte de prima administrare, pregatiti flaconul prin apasarea pompei de cateva ori pana cand prima pulverizare completa este eliberata. In timp ce tineti flaconul in pozitie verticala, introduceti pompa de pulverizare pe rand in fiecare nara si apasati ferm de 1-2 ori, in timp ce inspirati profund</t>
+  </si>
+  <si>
+    <t>nazal, solutie</t>
+  </si>
+  <si>
+    <t>Afrin este indicat ca tratament simpotmatic al congestiei nazale din: rinita non-alergica, rinita alergica sezoniera si perena, sinuzite, otita medie.</t>
+  </si>
+  <si>
+    <t>15,50</t>
+  </si>
+  <si>
+    <t>Aspirin Complex granule 500mg, 10plicuri</t>
+  </si>
+  <si>
+    <t>Imagine_12.jpg</t>
+  </si>
+  <si>
+    <t>Aspirin Complex este indicata in tratamentul simptomatic al congestiei nazale si al durerii si febrei din cadrul racelii.</t>
+  </si>
+  <si>
+    <t>Unul sau doua plicuri se dizolva intr-un pahar cu apa si se bea continutul imediat. Atentie! Granulele nu se dizolva complet!.</t>
+  </si>
+  <si>
+    <t>Coldrex MaxGrip Lemon x 5 plicuri</t>
+  </si>
+  <si>
+    <t>Imagine_13.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doza normala pentru adulti {inclusiv varstnici) si copii cu varsta peste 12 ani este de un plic la fiecare 4 sau 6 ore la nevoie. Nu luati mai mult de 4 plicuri in 24 de ore. </t>
+  </si>
+  <si>
+    <t>Analgezic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substantele active din Coldrex Maxgrip Lemon sunt paracetamol 1000 mg, acid ascorbic 40 mg si clorhidrat de fenilefrina 10mg. 
+Celelalte componente sunt zahar, acid citric anhidru, citrat de sodiu, amidon de porumb, aroma de lamaie 610399 E, ciclamat de sodiu, zaharina sodica, dioxid de siliciu coloidal 
+anhidru si curcumina(EIOO). </t>
+  </si>
+  <si>
+    <t>Aspenter 75mg, 30 comprimate filmate T</t>
+  </si>
+  <si>
+    <t>Imagine_14.jpg</t>
+  </si>
+  <si>
+    <t>Comprimatele filmate gastrorezistente trebuie inghitite intregi, cu suficient lichid, preferabil dupa masa.</t>
+  </si>
+  <si>
+    <t>Antibiotic</t>
+  </si>
+  <si>
+    <t>Aspenter contine ca substanta activa acidul acetilsalicilic (cunoscut si sub numele de aspirina). Acidul acetilsalicilic (Aspenter) apartine unui grup de medicamente numit antitrombotice, antiagregante plachetare. Plachetele sunt celule mici prezente in sange, care participa la coagularea sangelui si sunt implicate in tromboza (formarea de cheaguri de sange). Aspenter actioneaza prin prevenirea formarii cheagurilor de sange si este utilizat pentru:
+- reducerea riscului de infarct miocardic la pacientii cu angina pectorala sau cu factori de risc multipli, cum sunt: hipertensiune arteriala, crestere ale valorii lipidelor din sange (hipercolesterolemie), fumat, diabet zaharat si istoric familial;</t>
+  </si>
+  <si>
+    <t>Aspacardin 39mg/12mg, 30 tablete T</t>
+  </si>
+  <si>
+    <t>Imagine_15.jpg</t>
+  </si>
+  <si>
+    <t>Curativ 2 comprimate de 3 ori/zi; profilactic 1 comprimat de 3 ori/zi. In cazul administrarii prelungite si in special la batrani se recomanda monitorizarea tratamentului prin control periodic al potasemiei.</t>
+  </si>
+  <si>
+    <t>Supliment Mineral</t>
+  </si>
+  <si>
+    <t>Aspacardin face parte din grupa de medicamente numite suplimente minerale, medicamente cu potasiu. Actioneaza asupra inimii si vaselor de sange fiind utilizat ca terapie adjuvanta la adulti in boala coronariana (boala vaselor de sange ale inimii), in anumite tulburari de ritm cadiac si pentru preventia tulburarilor de ritm cardiac care pot sa apara dupa tratamentul cu unele medicamente numite glicozide tonicardiace</t>
+  </si>
+  <si>
+    <t>12,50</t>
   </si>
 </sst>
 </file>
@@ -706,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,54 +1066,124 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="15">
+        <v>20</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4">
+        <v>13</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+    <row r="15" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="15">
+        <v>9.5</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">

--- a/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
+++ b/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC95840-C418-46DC-9182-8B29643C2593}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F84CBC-C598-4057-BE1C-615C0FBAA953}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>Denumire</t>
   </si>
@@ -266,20 +266,88 @@
     <t>Curativ 2 comprimate de 3 ori/zi; profilactic 1 comprimat de 3 ori/zi. In cazul administrarii prelungite si in special la batrani se recomanda monitorizarea tratamentului prin control periodic al potasemiei.</t>
   </si>
   <si>
-    <t>Supliment Mineral</t>
-  </si>
-  <si>
     <t>Aspacardin face parte din grupa de medicamente numite suplimente minerale, medicamente cu potasiu. Actioneaza asupra inimii si vaselor de sange fiind utilizat ca terapie adjuvanta la adulti in boala coronariana (boala vaselor de sange ale inimii), in anumite tulburari de ritm cadiac si pentru preventia tulburarilor de ritm cardiac care pot sa apara dupa tratamentul cu unele medicamente numite glicozide tonicardiace</t>
   </si>
   <si>
     <t>12,50</t>
+  </si>
+  <si>
+    <t>Essentiale Forte 300 mg, 30 caps.</t>
+  </si>
+  <si>
+    <t>Imagine_16.jpg</t>
+  </si>
+  <si>
+    <t>Daca medicul nu recomanda alte doze, se indica cate 2 capsule de 3 ori pe zi sau 3 capsule de 2 ori pe zi, administrate cu putin lichid in timpul meselor.</t>
+  </si>
+  <si>
+    <t>Essentiale Forte contine fosfolipide esentiale extrase din seminte de soia. Acest medicament este indicat adultilor, adolescentilor si copiilor cu varsta peste 12 ani, pentru ameliorarea simptomelor cum sunt lipsa poftei de mancare si senzatia de presiune in partea dreapta a abdomenului superior, cauzate de afectarea ficatului de catre substante nocive sau malnutritie (afectarea toxico-nutritionala a ficatului) si in inflamarea cronica a ficatului (hepatita).</t>
+  </si>
+  <si>
+    <t>Colebil, 20 drajeuri</t>
+  </si>
+  <si>
+    <t>Imagine_17.jpg</t>
+  </si>
+  <si>
+    <t>Cate 1-3 drajeuri/zi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tratament simptomatic in tulburari dispeptice: balonari epigastrice, eructatii, flatulenta, greata; constipatie (ca medicatie adjuvanta).
+Coleretic, substituent al sarurilor biliare; laxativ, slab antiseptic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magne B6, 50 drajeuri
+</t>
+  </si>
+  <si>
+    <t>Imagine_18.jpg</t>
+  </si>
+  <si>
+    <t>Doza uzuala este de 6-8 drajeuri pe zi, fractionat in 2-3 prize, administrate in timpul meselor.Drajeurile trebuie inghitite intregi, cu un pahar cu apa.</t>
+  </si>
+  <si>
+    <t>supliment mineral</t>
+  </si>
+  <si>
+    <t>Acest medicament contine magneziu si clorhidrat de piridoxina. Este utilizat pentru prevenirea si tratamentul deficitului de magneziu la adulti, adolescenti si copii cu varsta cuprina intre 6-12 ani.</t>
+  </si>
+  <si>
+    <t>Imagine_19.jpg</t>
+  </si>
+  <si>
+    <t>CALCIVID CITRAT X 30 TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalciviD citrat este un supliment alimentar recomandat persoanelor care au carenta de calciu si vitamina D, asigurand doza necesara rezistentei oaselor, avand rol important in circulatia sangvina si functionarea normala a inimii. Formula nu afecteaza rinichii si nu irita mucoasa gastrica, tocmai de aceea suplimentul alimentar poate fi adiministrat pe stomacul gol.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Timpul din zi ideal pentru administrare:
+-     Dupa mese.</t>
+  </si>
+  <si>
+    <t>16,90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revalid, 30 capsule
+</t>
+  </si>
+  <si>
+    <t>Imagine_20.jpg</t>
+  </si>
+  <si>
+    <t>Revalid este un medicament impotriva caderii parului (alopecie) si tulburari ale cresterii parului, precum:alopecie difuza; alopecie androgenica; alopecie seboreica; alopecie aparuta in timpul sarcinii; alopecie medicamentoasa datorata unor tulburari hormonale sau de origine necunoscuta; tulburari ale parului si unghiilor datorate nutritiei.</t>
+  </si>
+  <si>
+    <t>Doza uzuala este de 1 capsula Revalid de 3 ori pe zi, administrata cu o cantitate suficienta de lichid, inainte de masa sau in timpul mesei.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +381,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF060606"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,7 +476,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,6 +576,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -787,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,67 +1251,137 @@
         <v>78</v>
       </c>
       <c r="D16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="15">
+        <v>19</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="15">
+        <v>26</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">

--- a/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
+++ b/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F84CBC-C598-4057-BE1C-615C0FBAA953}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3138F297-4179-4227-82BF-B1349C95B6BC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="127">
   <si>
     <t>Denumire</t>
   </si>
@@ -341,6 +341,83 @@
   </si>
   <si>
     <t>Doza uzuala este de 1 capsula Revalid de 3 ori pe zi, administrata cu o cantitate suficienta de lichid, inainte de masa sau in timpul mesei.</t>
+  </si>
+  <si>
+    <t>Egistrozol 1mg x 30 comprimate filmate</t>
+  </si>
+  <si>
+    <t>Imagine_21.jpg</t>
+  </si>
+  <si>
+    <t>Doza recomandată este de un comprimat administrat o dată pe z</t>
+  </si>
+  <si>
+    <t>Antineoplazice</t>
+  </si>
+  <si>
+    <t>Egistrozol 1 mg comprimate filmate conţine o substanţă numită anastrozol. Acesta aparţine unui grup de medicamente, numite inhibitori de aromatază. Egistrozol este utilizat în tratamentul cancerului de sân la femeile care au trecut la menopauză.</t>
+  </si>
+  <si>
+    <t>Decaris 150mg, 1 comprimat</t>
+  </si>
+  <si>
+    <t>Imagine_22.jpg</t>
+  </si>
+  <si>
+    <t>DECARIS face parte din grupa antinematode, derivaţi de imidazotiazol; are acţiune vermicidă prin paralizia musculaturii viermilor intestinali.
+DECARIS este indicat în infestări cu: Ascaris lumbricoides, Necator americanus, Strongyloides stercocalis, Trichostrongylus colubriformis şi Ankylostoma duodenale</t>
+  </si>
+  <si>
+    <t>Produs antiparazitar</t>
+  </si>
+  <si>
+    <t>1 comprimat de 150 mg în doză unică.Este preferabil ca administrarea medicamentului să se facă seara, la culcare. La nevoie, tratamentul se va repeta după o pauză de 14 zile.</t>
+  </si>
+  <si>
+    <t>Zentel suspensie 200mg/5ml, 10ml</t>
+  </si>
+  <si>
+    <t>Imagine_23.jpg</t>
+  </si>
+  <si>
+    <t>Medicul dumneavoastră vă va recomanda ce doză de suspensie ZENTEL este necesară zilnic şi cât timp trebuie să luaţi ZENTEL. Doza depinde de greutatea sau vârsta dumneavoastră şi de tipul şi severitatea infecţiei.</t>
+  </si>
+  <si>
+    <t>ZENTEL este o suspensie care trebuie administrată pe cale orală.
+ZENTEL este un carbamat de benzimidazol, compus care aparţine grupei de medicamente antihelmintice şi antiparazitare.
+ZENTEL este utilizat pentru tratamentul unei varietăţi largi de afecţiuni intestinale determinate de viermi şi paraziţi.
+Se presupune că ZENTEL elimină viermii sau paraziţii prin afectarea metabolismului acestora ceea ce determina moartea lor. Sunt afectate atât ouăle şi larvele cât şi paraziţii adulţi.</t>
+  </si>
+  <si>
+    <t>Arnigel, 45 g</t>
+  </si>
+  <si>
+    <t>Imagine_24.jpg</t>
+  </si>
+  <si>
+    <t>De 2-3 ori pe zi, la adulti si la copii mai mari de 1 an.</t>
+  </si>
+  <si>
+    <t>Unguent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnigel este un medicament homeopat utilizat in mod traditional in tratamentul local in traumatologia benigna in absenta plagilor (echimoze, contuzii, oboseala musculara) la adulti si copii cu varsta peste 1 an.
+</t>
+  </si>
+  <si>
+    <t>Sulfat de bariu suspensie orala, 95g MED</t>
+  </si>
+  <si>
+    <t>Imagine_25.jpg</t>
+  </si>
+  <si>
+    <t>Pulbere pentru suspensie orala</t>
+  </si>
+  <si>
+    <t>Continutul unui flacon se amesteca cu apa, se agita bine si se bea pe stomacul gol, dupa indicatiile medicului radioimagist.</t>
+  </si>
+  <si>
+    <t>SULFAT DE BARIU apartine unei clase de medicamente cunoscute sub numele de medii de contrast pentru radiologie, fara iod. Este folosit pentru explorarea tubului digestiv.</t>
   </si>
 </sst>
 </file>
@@ -866,7 +943,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,54 +1461,124 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="4">
+        <v>12</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+    <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="15">
+        <v>21</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+    <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="15">
+        <v>14</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="4">
+        <v>22</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">

--- a/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
+++ b/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3138F297-4179-4227-82BF-B1349C95B6BC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAE2EF6-6622-4D3B-93B2-2DF659318364}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="200">
   <si>
     <t>Denumire</t>
   </si>
@@ -418,6 +418,251 @@
   </si>
   <si>
     <t>SULFAT DE BARIU apartine unei clase de medicamente cunoscute sub numele de medii de contrast pentru radiologie, fara iod. Este folosit pentru explorarea tubului digestiv.</t>
+  </si>
+  <si>
+    <t>Alka Seltzer 324mg, 10 comprimate efervescente</t>
+  </si>
+  <si>
+    <t>Imagine_26.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alka-Setzer este un analgezic, antipiretic, antiinflamator, eficient in combaterea durerilor de intensitate slaba sau moderata, in cefalee, mialgii, dureri reumatice articulare si periarticulare, nevralgii, dureri dentare, dismenoree, combaterea febrei; combaterea fenomenelor inflamatorii in reumatismul poliarticular acut; atenuarea inflamatiei articulare in poliartrita reumatoida. </t>
+  </si>
+  <si>
+    <t>19,50</t>
+  </si>
+  <si>
+    <t>Analgezice</t>
+  </si>
+  <si>
+    <t>Comprimatele efervescente se dizolvă într-un pahar cu apă înainte de administrare.</t>
+  </si>
+  <si>
+    <t>Clafen crema, 40 g IS</t>
+  </si>
+  <si>
+    <t>Imagine_27.jpg</t>
+  </si>
+  <si>
+    <t>lafen contine ca substanta activa diclofenac care face parte din clasa de medicamente cunoscute sub denumirea de antiinflamatoare nesteroidiene (AINS) de uz local.
+Este utilizat in tratamentul local simptomatic la adulti pentru reducerea durerii si inflamatiei:
+- musculare sau osteoarticulare de origine reumatica;
+- in cazul edemelor postoperatorii si posttraumatice (de exemplu entorse);</t>
+  </si>
+  <si>
+    <t>29,60</t>
+  </si>
+  <si>
+    <t>antiinflamatoare nesteroidiene</t>
+  </si>
+  <si>
+    <t>Clafen se administreaza de 3 - 4 ori pe zi la nivelul zonei afectate. Doza administrata la fiecare aplicare variaza in functie de suprafata zonei afectate, fiind de aproximativ 2 - 4 g gel (corespunzator la aproximativ 5 - 10 cm gel).</t>
+  </si>
+  <si>
+    <t>Antinevralgic P, 20 comprimate</t>
+  </si>
+  <si>
+    <t>Imagine_28.jpg</t>
+  </si>
+  <si>
+    <t>Cate 1 comprimat la nevoie, repetat de 3-4 ori/zi.</t>
+  </si>
+  <si>
+    <t>Antinevralgic P este un analgezic si antiseptic prin acidul acetilsalicilic si paracetamol; stimulent psihomotor slab si antimigrenos prin cafeina.</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>Advil ultra 200mg, 1blist x 10 capsule moi</t>
+  </si>
+  <si>
+    <t>Imagine_29.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvil Ultra apartine grupului de medicamente denumite antiinflamatoare nestroidiene (cunoscute ca AINS) si sunt folosite pentru a calma durerea si a reduce inflamatia si febra. Datorita formei capsulelor moi substanta activa este absorbita de organism de1,25-2,5 ori mai repede decat in cazul tabletelor. Pentru ameliorarea durerii de intensitate redusa si moderata, durerilor osteoarticulare si musculare (inclusiv tendinite, bursite, luxatii, entorse), durerilor de spate, cefaleei, migrenei (tratament si profilaxie), algiilor dentare, dismenoreei, febrei si pentru ameliorarea simptomelor racelii si gripei. </t>
+  </si>
+  <si>
+    <t>Adulţi, vârstnici şi copii cu vârsta peste 12 ani: o capsulă moale la fiecare 4-6 ore, după cum este nevoie.
+Nu se vor administra mai mult de 6 capsule moi (1200 mg) în 24 de ore.</t>
+  </si>
+  <si>
+    <t>11,25</t>
+  </si>
+  <si>
+    <t>Adagin 400mg, 10 capsule</t>
+  </si>
+  <si>
+    <t>Imagine_30.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adagin face parte din grupa medicamentelor denumite AINS (medicamente antiinflamatoare nesteroidiene) care actioneaza reducand durerea, inflamatia si febra.
+Adagin este utilizat pentru a calma durerile usoare pana la moderate, cum sunt durerea de cap, incluzand migrena, durerea de dinti, durerea menstruala si a reduce febra. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adulti si adolescenti cu varsta peste 12 ani (≥40 kg): 1-2 comprimate administrate intr-o priza unica sau de 3-4 ori pe zi la intervale de 4 pana la 6 ore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diclac 5% gel, 50g
+</t>
+  </si>
+  <si>
+    <t>Imagine_31.jpg</t>
+  </si>
+  <si>
+    <t>Diclac se administreaza extern, in strat subtire, in 2-3 aplicatii pe zi, la nivelul zonei afectate.</t>
+  </si>
+  <si>
+    <t>Ce contine Diclac
+-                 Substanta activa este diclofenac sodic. Un gram gel contine diclofenac sodic 50 mg.
+-                 Celelalte componente sunt: alcool izopropilic, cocoat de macrogol-7-glicerol, hipromeloza, parfum „Bouquet” WN 4507, apa purificata</t>
+  </si>
+  <si>
+    <t>18,55</t>
+  </si>
+  <si>
+    <t>Diclofenac gel 1%, 45g T</t>
+  </si>
+  <si>
+    <t>Imagine_32.jpg</t>
+  </si>
+  <si>
+    <t>Diclofenac Fiterman se administreaza de  3 - 4 ori pe zi la nivelul zonei afectate. Doza administrata la fiecare aplicare variaza in functie de suprafata zonei afectate, fiind de aproximativ 2 - 4 g gel (corespunzator la aproximativ 5 - 10 cm gel).</t>
+  </si>
+  <si>
+    <t>ubstanta activa este diclofenacul sodic. Un gram gel contine diclofenac sodic 10 mg.
+-Celelalte componente sunt: levomentol, carbomer 980, trietanolamina, p-hidroxibenzoat de metil, p-hidroxibenzoat de n-propil, etanol, apa purificata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibalgin 200 mg, 24 comprimate filmate
+</t>
+  </si>
+  <si>
+    <t>Imagine_33.jpg</t>
+  </si>
+  <si>
+    <t>balgin este un medicament care face parte din clasa antiinflamatoarelor si antireumaticelor nesteroidiene, derivati de acid propionic.
+Ibalgin este indicat pentru:
+- tratamentul afectiunilor reumatismale acute sau cronice: reumatism articular inflamator sau degenerativ, reumatism extraarticular;
+- tratamentul simptomatic al afectiunilor dureroase: cefalee, migrena (tratament si profilaxie), dureri dentare, dismenoree, dureri osteo-articulare si musculare (inclusiv tendinite, bursite, luxatii, entorse);
+- tratamentul simptomatic al febrei.</t>
+  </si>
+  <si>
+    <t>11,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adulti si copii peste 12 ani: se administreaza initial 200 - 400 mg ibuprofen, apoi, daca este necesar, doza se poate repeta la intervale de 4 – 6 ore, fara a depasi doza maxima de 1200 mg ibuprofen. Comprimatele filmate se inghit intregi, cu putina apa, preferabil in timpul meselor.
+Se recomanda ca durata tratamentului sa nu depaseasca 7 zile.                                        </t>
+  </si>
+  <si>
+    <t>Fasconal, 2 blistere x 10 comprimate ARM.</t>
+  </si>
+  <si>
+    <t>Imagine_34.jpg</t>
+  </si>
+  <si>
+    <t>Fasconal este un analgezic utilizat pentru tratamentul simptomatic de scurta durata al durerilor de intensitate moderata pana la severa, cu diferite localizari: dureri de cap, migrena, nevralgii (dureri pe traiectul unui nerv), mialgii (dureri musculare), artralgii (dureri articulare), dureri dentare sau in sfera ORL, dismenoree (menstruatii insotite de dureri) si tratamentul starilor febrile.</t>
+  </si>
+  <si>
+    <t>Adultii si adolescentii cu varsta peste 15 ani: un comprimat Fasconal, la nevoie; daca este necesar, doza se poate repeta la intervale de 6 ore. Nu luati mai mult de 4 comprimate Fasconal intr-un interval de 24 ore. Nu se recomanda administrarea la intervale mai mici de 6 ore.</t>
+  </si>
+  <si>
+    <t>18,99</t>
+  </si>
+  <si>
+    <t>Larofen 200 mg x 20 compr. film.</t>
+  </si>
+  <si>
+    <t>Imagine_35.jpg</t>
+  </si>
+  <si>
+    <t>Larofen 200 mg contine ibuprofen care apartine unei grupe de medicamente numite antiinflamatore nesteroidiene (AINS). Antiinflamatoarele nesteroidiene modifica raspunsul organismului la durere, inflamatie si febra.</t>
+  </si>
+  <si>
+    <t>Adulţi şi copii cu vârsta peste 12 ani: doza uzuală este de un comprimat filmat Larofen, administrat la intervale de 4-6 ore. Dacă durerea sau febra nu se ameliorează, se pot adminstra 2 comprimate filmate Larofen, fără a depăşi, însă, 6 comprimate filmate Larofen în 24 ore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurofen Forte 400mg, 12cpr
+</t>
+  </si>
+  <si>
+    <t>Imagine_36.jpg</t>
+  </si>
+  <si>
+    <t>Nurofen Forte face parte din grupa medicamentelor denumite AINS (medicamente antiinflamatoare nesteroidiene) care acţionează reducând durerea, inflamaţia şi febra.
+Nurofen Forte este utilizat pentru a calma durerile uşoare până la moderate, cum sunt durerea de cap, incluzând migrena, durerea de dinţi, durerea menstruală şi a reduce febra.</t>
+  </si>
+  <si>
+    <t>17,90</t>
+  </si>
+  <si>
+    <t>Antiinflamatoare nesteroidiene</t>
+  </si>
+  <si>
+    <t>Adulţi şi adolescenţi cu vârsta peste 12 ani (&gt;40 kg):
+1 drajeu administrat într-o priză unică sau de 3-4 ori pe zi, la intervale de 4 până la 6 ore. In migrenă, dozajul trebuie să fie: 1 drajeu administrat într-o priză unică, dacă este necesar 1 drajeu la intervale de 4 până la 6 ore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neolin, 20 comprimate
+</t>
+  </si>
+  <si>
+    <t>Imagine_37.jpg</t>
+  </si>
+  <si>
+    <t>NEOLIN este indicat pentru tratamentul simptomatic de scurtă durată al durerilor de intensitate uşoară până la moderată, cu diferite localizări: dureri de cap, migrenă, dureri de dinţi, dureri ale muşchilor sau articulaţiilor sau în caz de menstruaţie dureroasă şi tratamentul stărilor febrile.</t>
+  </si>
+  <si>
+    <t>9,50</t>
+  </si>
+  <si>
+    <t>Medicamentul se administrează numai adulţilor şi adolescenţilor cu vârsta peste 15 ani.
+Adulţi şi adolescenţi cu vârsta peste 15 ani: doza recomandată este de un comprimat NEOLIN, administrat oral, la nevoie; dacă este necesar, doza se poate repeta la intervale de 4 - 6 ore, fără a depăşi 4 comprimate NEOLIN pe zi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larofen pentru copii 100 mg/5ml, 100 ml suspensie orala
+</t>
+  </si>
+  <si>
+    <t>Imagine_38.jpg</t>
+  </si>
+  <si>
+    <t>Larofen pentru copii ameliorează durerea uşoară sau moderată (durere în gât, durere de dinţi sau durerea determinată de apariţia dinţilor, durere de cap şi alte tipuri de durere, cum sunt cele asociate luxaţiilor, inflamaţiilor de la nivelul urechii etc).</t>
+  </si>
+  <si>
+    <t>Doza recomandată este de 200 mg ibuprofen (10 ml suspensie orală Larofen pentru copii), de 3 ori pe zi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nalgesin 220 mg x 10 comprimate
+</t>
+  </si>
+  <si>
+    <t>Imagine_39.jpg</t>
+  </si>
+  <si>
+    <t>Nalgesin de la KRKA D.D. este un medicament destinat pentru tratamentul simptomelor de durere si inflamatie.
+Se recomanda administrarea sa in cazul durerilor de cap, durerilor de dinti, durerilor menstruale, durerilor articulare si musculare.
+Nalgesin de la KRKA D.D. este indicat in tratarea durerilor usoare spre medii, efectul analgezic durand pana la 12 ore.
+Se administreaza pe o durata de 3 zile, timp necesar ca simptomele sa fie anihilate, in caz contrar trebuie apelat la medic.</t>
+  </si>
+  <si>
+    <t>Doza recomandata pentru adulti si copii cu varsta peste 16 de ani si cu greutate corporala peste 50 kg este de 1 comprimat filmat la fiecare 8-12 ore.Inghititi comprimatele cu o cantitate suficienta de lichid, in timpul sau dupa mese.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panadol Extra, 12 comprimate
+</t>
+  </si>
+  <si>
+    <t>Imagine_40.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duti: se recomanda 1-2 comprimate de 1-4 ori pe zi. Administrarea nu se repeta la un interval mai mic de 4 ore. Nu se vor administra mai mult de 8 comprimate (4 doze) in 24 de ore. </t>
+  </si>
+  <si>
+    <t>Panadol Extra contine o combinatie de doua substante active: paracetamol (combate durerea) si antipiretic (reduce febra) si cofeina care asigura o ameliorare suplimentara a durerii. Panadol Extra nu irita stomacul.</t>
+  </si>
+  <si>
+    <t>22,60</t>
   </si>
 </sst>
 </file>
@@ -553,7 +798,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,8 +899,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -942,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +1208,7 @@
     <col min="1" max="1" width="51" style="22" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="24" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="40" customWidth="1"/>
     <col min="5" max="5" width="67.85546875" style="32" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="28"/>
     <col min="7" max="7" width="13.5703125" style="28" customWidth="1"/>
@@ -967,7 +1224,7 @@
       <c r="C1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="29" t="s">
@@ -1063,7 +1320,7 @@
       <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1087,7 +1344,7 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -1111,7 +1368,7 @@
       <c r="C7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1135,7 +1392,7 @@
       <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -1159,7 +1416,7 @@
       <c r="C9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1183,7 +1440,7 @@
       <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -1207,7 +1464,7 @@
       <c r="C11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1231,7 +1488,7 @@
       <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="26" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -1255,7 +1512,7 @@
       <c r="C13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -1279,7 +1536,7 @@
       <c r="C14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -1303,7 +1560,7 @@
       <c r="C15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="36" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1327,7 +1584,7 @@
       <c r="C16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="26" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -1351,7 +1608,7 @@
       <c r="C17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="36" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1375,7 +1632,7 @@
       <c r="C18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -1399,7 +1656,7 @@
       <c r="C19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1423,7 +1680,7 @@
       <c r="C20" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="26" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -1447,7 +1704,7 @@
       <c r="C21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1471,7 +1728,7 @@
       <c r="C22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="26" t="s">
         <v>106</v>
       </c>
       <c r="E22" s="19" t="s">
@@ -1495,7 +1752,7 @@
       <c r="C23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="36" t="s">
         <v>111</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -1519,7 +1776,7 @@
       <c r="C24" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="26" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -1543,7 +1800,7 @@
       <c r="C25" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="36" t="s">
         <v>120</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -1581,161 +1838,371 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+    <row r="28" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+    <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+    <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+    <row r="32" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+    <row r="33" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="15">
+        <v>8</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+    <row r="34" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+    <row r="35" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+    <row r="36" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="4">
+        <v>7</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+    <row r="37" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+    <row r="38" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="15">
+        <v>12</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+    <row r="40" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="4">
+        <v>18</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+    <row r="41" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="23"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="30"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -1745,7 +2212,7 @@
       <c r="A43" s="21"/>
       <c r="B43" s="14"/>
       <c r="C43" s="34"/>
-      <c r="D43" s="15"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="31"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -1755,7 +2222,7 @@
       <c r="A44" s="3"/>
       <c r="B44" s="23"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="30"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1765,7 +2232,7 @@
       <c r="A45" s="21"/>
       <c r="B45" s="14"/>
       <c r="C45" s="34"/>
-      <c r="D45" s="15"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="31"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -1775,7 +2242,7 @@
       <c r="A46" s="3"/>
       <c r="B46" s="23"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="30"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -1785,7 +2252,7 @@
       <c r="A47" s="21"/>
       <c r="B47" s="14"/>
       <c r="C47" s="34"/>
-      <c r="D47" s="15"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="31"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -1795,7 +2262,7 @@
       <c r="A48" s="3"/>
       <c r="B48" s="23"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="30"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -1805,7 +2272,7 @@
       <c r="A49" s="21"/>
       <c r="B49" s="14"/>
       <c r="C49" s="34"/>
-      <c r="D49" s="15"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="31"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -1815,7 +2282,7 @@
       <c r="A50" s="3"/>
       <c r="B50" s="23"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="30"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -1825,7 +2292,7 @@
       <c r="A51" s="21"/>
       <c r="B51" s="14"/>
       <c r="C51" s="34"/>
-      <c r="D51" s="15"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="31"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -1835,7 +2302,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="23"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="30"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -1845,7 +2312,7 @@
       <c r="A53" s="21"/>
       <c r="B53" s="14"/>
       <c r="C53" s="34"/>
-      <c r="D53" s="15"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="31"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -1855,7 +2322,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="23"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="30"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -1865,7 +2332,7 @@
       <c r="A55" s="21"/>
       <c r="B55" s="14"/>
       <c r="C55" s="34"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="31"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -1875,7 +2342,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="23"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="30"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -1885,7 +2352,7 @@
       <c r="A57" s="21"/>
       <c r="B57" s="14"/>
       <c r="C57" s="34"/>
-      <c r="D57" s="15"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="31"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -1895,7 +2362,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="23"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="30"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -1905,7 +2372,7 @@
       <c r="A59" s="21"/>
       <c r="B59" s="14"/>
       <c r="C59" s="34"/>
-      <c r="D59" s="15"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="31"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -1915,7 +2382,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="23"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="30"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -1925,7 +2392,7 @@
       <c r="A61" s="21"/>
       <c r="B61" s="14"/>
       <c r="C61" s="34"/>
-      <c r="D61" s="15"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="31"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -1935,7 +2402,7 @@
       <c r="A62" s="3"/>
       <c r="B62" s="23"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="30"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -1945,7 +2412,7 @@
       <c r="A63" s="21"/>
       <c r="B63" s="14"/>
       <c r="C63" s="34"/>
-      <c r="D63" s="15"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="31"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -1955,7 +2422,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="23"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="30"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -1965,7 +2432,7 @@
       <c r="A65" s="21"/>
       <c r="B65" s="14"/>
       <c r="C65" s="34"/>
-      <c r="D65" s="15"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="31"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -1975,7 +2442,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="23"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="30"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -1985,7 +2452,7 @@
       <c r="A67" s="21"/>
       <c r="B67" s="14"/>
       <c r="C67" s="34"/>
-      <c r="D67" s="15"/>
+      <c r="D67" s="39"/>
       <c r="E67" s="31"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -1995,7 +2462,7 @@
       <c r="A68" s="3"/>
       <c r="B68" s="23"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="38"/>
       <c r="E68" s="30"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -2005,7 +2472,7 @@
       <c r="A69" s="21"/>
       <c r="B69" s="14"/>
       <c r="C69" s="34"/>
-      <c r="D69" s="15"/>
+      <c r="D69" s="39"/>
       <c r="E69" s="31"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -2015,7 +2482,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="23"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="30"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -2025,7 +2492,7 @@
       <c r="A71" s="21"/>
       <c r="B71" s="14"/>
       <c r="C71" s="34"/>
-      <c r="D71" s="15"/>
+      <c r="D71" s="39"/>
       <c r="E71" s="31"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -2035,7 +2502,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="23"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="30"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -2045,7 +2512,7 @@
       <c r="A73" s="21"/>
       <c r="B73" s="14"/>
       <c r="C73" s="34"/>
-      <c r="D73" s="15"/>
+      <c r="D73" s="39"/>
       <c r="E73" s="31"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -2055,7 +2522,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="23"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="30"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -2065,7 +2532,7 @@
       <c r="A75" s="21"/>
       <c r="B75" s="14"/>
       <c r="C75" s="34"/>
-      <c r="D75" s="15"/>
+      <c r="D75" s="39"/>
       <c r="E75" s="31"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -2075,7 +2542,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="23"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="38"/>
       <c r="E76" s="30"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -2085,7 +2552,7 @@
       <c r="A77" s="21"/>
       <c r="B77" s="14"/>
       <c r="C77" s="34"/>
-      <c r="D77" s="15"/>
+      <c r="D77" s="39"/>
       <c r="E77" s="31"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -2095,7 +2562,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="23"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="38"/>
       <c r="E78" s="30"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -2105,7 +2572,7 @@
       <c r="A79" s="21"/>
       <c r="B79" s="14"/>
       <c r="C79" s="34"/>
-      <c r="D79" s="15"/>
+      <c r="D79" s="39"/>
       <c r="E79" s="31"/>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -2115,7 +2582,7 @@
       <c r="A80" s="3"/>
       <c r="B80" s="23"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="38"/>
       <c r="E80" s="30"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -2125,7 +2592,7 @@
       <c r="A81" s="21"/>
       <c r="B81" s="14"/>
       <c r="C81" s="34"/>
-      <c r="D81" s="15"/>
+      <c r="D81" s="39"/>
       <c r="E81" s="31"/>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -2135,7 +2602,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="23"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="38"/>
       <c r="E82" s="30"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -2145,7 +2612,7 @@
       <c r="A83" s="21"/>
       <c r="B83" s="14"/>
       <c r="C83" s="34"/>
-      <c r="D83" s="15"/>
+      <c r="D83" s="39"/>
       <c r="E83" s="31"/>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
@@ -2155,7 +2622,7 @@
       <c r="A84" s="3"/>
       <c r="B84" s="23"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="38"/>
       <c r="E84" s="30"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -2165,7 +2632,7 @@
       <c r="A85" s="21"/>
       <c r="B85" s="14"/>
       <c r="C85" s="34"/>
-      <c r="D85" s="15"/>
+      <c r="D85" s="39"/>
       <c r="E85" s="31"/>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
@@ -2175,7 +2642,7 @@
       <c r="A86" s="3"/>
       <c r="B86" s="23"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="38"/>
       <c r="E86" s="30"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -2185,7 +2652,7 @@
       <c r="A87" s="21"/>
       <c r="B87" s="14"/>
       <c r="C87" s="34"/>
-      <c r="D87" s="15"/>
+      <c r="D87" s="39"/>
       <c r="E87" s="31"/>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
@@ -2195,7 +2662,7 @@
       <c r="A88" s="3"/>
       <c r="B88" s="23"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="4"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="30"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -2205,7 +2672,7 @@
       <c r="A89" s="21"/>
       <c r="B89" s="14"/>
       <c r="C89" s="34"/>
-      <c r="D89" s="15"/>
+      <c r="D89" s="39"/>
       <c r="E89" s="31"/>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -2215,7 +2682,7 @@
       <c r="A90" s="3"/>
       <c r="B90" s="23"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="30"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -2225,7 +2692,7 @@
       <c r="A91" s="21"/>
       <c r="B91" s="14"/>
       <c r="C91" s="34"/>
-      <c r="D91" s="15"/>
+      <c r="D91" s="39"/>
       <c r="E91" s="31"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
@@ -2235,7 +2702,7 @@
       <c r="A92" s="3"/>
       <c r="B92" s="23"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="4"/>
+      <c r="D92" s="38"/>
       <c r="E92" s="30"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -2245,7 +2712,7 @@
       <c r="A93" s="21"/>
       <c r="B93" s="14"/>
       <c r="C93" s="34"/>
-      <c r="D93" s="15"/>
+      <c r="D93" s="39"/>
       <c r="E93" s="31"/>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
@@ -2255,7 +2722,7 @@
       <c r="A94" s="3"/>
       <c r="B94" s="23"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="38"/>
       <c r="E94" s="30"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -2265,7 +2732,7 @@
       <c r="A95" s="21"/>
       <c r="B95" s="14"/>
       <c r="C95" s="34"/>
-      <c r="D95" s="15"/>
+      <c r="D95" s="39"/>
       <c r="E95" s="31"/>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
@@ -2275,7 +2742,7 @@
       <c r="A96" s="3"/>
       <c r="B96" s="23"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="38"/>
       <c r="E96" s="30"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -2285,7 +2752,7 @@
       <c r="A97" s="21"/>
       <c r="B97" s="14"/>
       <c r="C97" s="34"/>
-      <c r="D97" s="15"/>
+      <c r="D97" s="39"/>
       <c r="E97" s="31"/>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
@@ -2295,7 +2762,7 @@
       <c r="A98" s="3"/>
       <c r="B98" s="23"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="30"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -2305,7 +2772,7 @@
       <c r="A99" s="21"/>
       <c r="B99" s="14"/>
       <c r="C99" s="34"/>
-      <c r="D99" s="15"/>
+      <c r="D99" s="39"/>
       <c r="E99" s="31"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
@@ -2315,7 +2782,7 @@
       <c r="A100" s="3"/>
       <c r="B100" s="23"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="4"/>
+      <c r="D100" s="38"/>
       <c r="E100" s="30"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -2325,7 +2792,7 @@
       <c r="A101" s="21"/>
       <c r="B101" s="14"/>
       <c r="C101" s="34"/>
-      <c r="D101" s="15"/>
+      <c r="D101" s="39"/>
       <c r="E101" s="31"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>

--- a/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
+++ b/ToDo/ListaCuMedicamente/ListaCuMedicamente.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAE2EF6-6622-4D3B-93B2-2DF659318364}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C77679-9626-4B54-82AC-C1EBC9AC2C02}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="250">
   <si>
     <t>Denumire</t>
   </si>
@@ -663,6 +663,183 @@
   </si>
   <si>
     <t>22,60</t>
+  </si>
+  <si>
+    <t>Cicaderma unguent, 30 g</t>
+  </si>
+  <si>
+    <t>Imagine_41.jpg</t>
+  </si>
+  <si>
+    <t>Cicaderma unguent trateaza arsuri de mica intensitate, eritem solar, rani superficiale cu intindere mica: taieturi mici, fisuri si crapaturi ale pielii; intepaturi de insecte; iritatii ale pielii.</t>
+  </si>
+  <si>
+    <t>Se aplica in strat subtire la nivelul tegumentului afectat, dupa curatarea leziunilor care urmeaza a fi tratate.
+Se aplica de 1-2 ori pe zi, cu sau fara pansament, in functie de gravitatea leziunilor cutanate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bepanthen crema 5% plus, 30g
+</t>
+  </si>
+  <si>
+    <t>Imagine_42.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se aplica pe suprafetele afectate o data sau de cateva ori/zi.
+</t>
+  </si>
+  <si>
+    <t>Bepanthen crema este o emulsie tip ulei in apa, bogata in apa. Datorita formulei sale specifice, Bepanthen crema hidrateaza rapid pielea. Bepanthen crema catifeleaza pielea si protejeaza pielea predispusa la iritatii.
+Bepanthen crema contine o concentratie importanta de Provitamina B5. In contact cu pielea, Provitamina B5 se transforma in acid pantotenic. Acidul pantotenic joaca un rol cheie in aportul de energie de la nivelul celulei cutanate si apoi in procesul natural de reinnoire si refacere a epidermei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermazin crema 1% x 50 g
+</t>
+  </si>
+  <si>
+    <t>Imagine_43.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermazin este un chimioterapic local pentru prevenirea si tratarea arsurilor infectate. Este recomandat in tratamentul si profilaxia arsurilor infectate si a ranilor suprainfectate, inclusiv escare si rani adanci netratate. 
+</t>
+  </si>
+  <si>
+    <t>15,25</t>
+  </si>
+  <si>
+    <t>După ce zona afectată este curăţată şi debridată, se aplică Dermazin 10 mg/g în strat de 2-4 mm grosime direct pe leziune, sau se aplică iniţial pe o faşă sterilă care este plasată ulterior pe leziune. Crema se aplică o dată pe zi, cu o spatulă sterilă sau cu mănuşi de unică folosinţă.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prostamol Uno 320 mg x 30 capsule moi
+</t>
+  </si>
+  <si>
+    <t>Imagine_44.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROSTAMOL UNO este un medicament din plante, utilizat in tratamentul tulburarilor produse de hiper- plazia benigna de prostata (adenom de prostata, afec­tiune care consta in marirea dimensiunilor prostatei, de cauza benigna), stadiile I si II, tulburari ce constau in dificultate la golirea vezicii urinare.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,50
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doza recomandata este de o capsula moale Prostamol uno pe zi administrata la aceeasi ora, dupa masa, cu suficient lichid. </t>
+  </si>
+  <si>
+    <t>Medicament pentru tratamentul hipertrofiei benigne de prostata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claritine 10mg, 10 comprimate
+</t>
+  </si>
+  <si>
+    <t>Imagine_45.jpg</t>
+  </si>
+  <si>
+    <t>Adulti si copii cu varsta de peste 12 ani:Doza recomandata este de un comprimat Claritine 10 mg (10 mg loratadina) o data pe zi, cu un pahar cu apa, fara legatura cu mesele.
+Copii cu varsta intre 2 si 12 ani:
+Greutate corporala mai mare de 30 kg: Doza recomandata este de un comprimat Claritine 10 mg (10 mg loratadina) o data pe zi, cu un pahar cu apa, fara legatura cu mesele.</t>
+  </si>
+  <si>
+    <t>Antihistaminice</t>
+  </si>
+  <si>
+    <t>Claritine apartine unei clase de produse medicamentoase cunoscute ca antihistaminice. Antihistaminicele ajuta la reducerea simptomelor alergiei impiedicand efectele unei substante numita histamina, care este produsa in corpul nostru.
+Claritine amelioreaza simptomatologia asociata rinitelor alergice (de exemplu: febra fanului), cum ar fi stranutul, hipersecretia sau pruritul nazal, usturimile sau pruritul ocular.
+Claritine poate fi, de asemenea, utilizat pentru reducerea simptomelor de urticarie (pruritul, roseata, precum si numarul si dimensiunile elementelor cutanate eruptive).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remotiv 250 mg, 30 comprimate filmate
+</t>
+  </si>
+  <si>
+    <t>Imagine_46.jpg</t>
+  </si>
+  <si>
+    <t>Remotiv este un medicament destinat adultilor. Doza recomandata este de 1 comprimat filmat Remotiv 250 de doua ori pe zi, dimineata si seara, administrarea facandu-se cu o cantitate de lichid (un pahar mare cu apa), de preferinta in timpul mesei sau dupa aceasta; comprimatele nu trebuie sfaramate</t>
+  </si>
+  <si>
+    <t>Anticoagulantele orale si ciclosporina anticoagulantelor orale de tip cumarinic si ciclosporinei urmata de o reducere a concentratiei acestora in plasma.
+La pacientii sub tratament cu ciclosporina, trebuie controlata mai frecvent concentratia acesteia in plasma si monitorizata activitatea imunosupresiva a acesteia.
+-Antiretrovirale inhibitoare ale proteazei si inhibitori nonnucleozidici ai revers transcriptazei.</t>
+  </si>
+  <si>
+    <t>52,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amlohexal 5mg, 30 comprimate
+</t>
+  </si>
+  <si>
+    <t>Imagine_47.jpg</t>
+  </si>
+  <si>
+    <t>Comprimat</t>
+  </si>
+  <si>
+    <t>Tratamentul trebuie inceput cu doza de 5 mg amlodipina o data pe zi. Comprimatulul se administreaza cu un pahar cu apa. Daca este necesar doza poate fi crescuta la 10 mg amlodipina.</t>
+  </si>
+  <si>
+    <t>Amlodipina este indicată în tratamentul hipertensiunii arteriale şi în prevenirea crizelor de angină pectorală: angină cronică stabilă, angină Prinzmetal.</t>
+  </si>
+  <si>
+    <t>39,90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alflutop 10mg/ml-10f./1ml
+</t>
+  </si>
+  <si>
+    <t>Imagine_48.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alflutop este recomandat in tratamentul bolilor reumatice degenerative (coxartroze, gonartroze, spondiloze, artroze interfalangiene), formelor inflamatorii de reumatism (poliartrita) si inflamatiilor dureroase post-traumatice. </t>
+  </si>
+  <si>
+    <t>70,50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Produsul se aplica local, pe tegumentul intact, de 2-3 ori pe zi, prin masaj usor al regiunii respective.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codeina fosfat 15mg, 20 comprimate
+</t>
+  </si>
+  <si>
+    <t>Imagine_49.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codeina Fosfat LPH 15 mg este un medicament care actioneaza impotriva tusei, a durerii de intensitate medie si a diareii. Este utilizat in tratamentul tusei iritative neproductive; durerilor de intensitate moderata (obisnuit in asociatie cu un analgezic antipiretic, de exemplu paracetamol sau acid acetilsalicilic); cazurilor selectionate de diaree, la adulti.
+</t>
+  </si>
+  <si>
+    <t>Adulţi: doza recomandată este de 1-2 comprimate de Codeină Fosfat LPH 15 mg, la intervale de 6-8 ore.
+Adolescenţii cu vârsta de 12 ani sau peste trebuie să ia 30-60 mg pe zi, administrat fracţionat, la fiecare 6 ore, după cum este necesar. Nu luaţi mai mult de 240 mg într-un interval de 24 ore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarinase, 7 comprimate filmate
+</t>
+  </si>
+  <si>
+    <t>Imagine_50.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antihistaminic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doza recomandată este de câte un comprimat cu eliberare modificată de două ori pe zi, cu un pahar de apă, cu sau fără alimente. Înghiţiţi comprimatul întreag; nu îl zdrobiţi, fragmentaţi sau mestecaţi înainte de a-l înghiţi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarinase conţine o asociere a două medicamente, un antihistaminic şi un decongestionant.
+Antihistaminicele ajută la reducerea simptomelor de alergie sau răceală, împiedicând efectele unei substanţe numită histamină, care este produsă în corp.Decongestionantele ajută la ameliorarea congestiei nazale.
+Clarinase este indicat pentru tratamentul simptomelor asociate rinitelor alergice (febra fânului), cum sunt strănutul, curgerea nasului, lăcrimarea sau mâncărimea nazală şi oculară, atunci când se însoţesc de congestie nazală.
+</t>
+  </si>
+  <si>
+    <t>39,99</t>
   </si>
 </sst>
 </file>
@@ -1199,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,104 +2375,244 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+    <row r="42" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+    <row r="43" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+    <row r="44" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+    <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+    <row r="46" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+    <row r="47" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+    <row r="50" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="4">
+        <v>44</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+    <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
